--- a/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSettings</t>
   </si>
@@ -247,6 +247,15 @@
       </rPr>
       <t>ID</t>
     </r>
+  </si>
+  <si>
+    <t>LEVEL_UP_EXP</t>
+  </si>
+  <si>
+    <t>50, 150, 300, 500, 750, 1050, 1400, 1800, 2250, 2750, 3850, 5050, 6350, 7750, 9250, 10850, 12550, 14350, 16750, 18250, 21400, 24700, 28150, 31750, 35500, 39400, 43450, 47650, 52000, 60000</t>
+  </si>
+  <si>
+    <t>升级经验，英文逗号分割</t>
   </si>
 </sst>
 </file>
@@ -905,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,6 +939,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1258,14 +1270,14 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.2" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.9142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.4666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
@@ -1669,6 +1681,20 @@
         <v>59</v>
       </c>
     </row>
+    <row r="30" ht="38.25" spans="1:4">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="82" spans="2:2">
       <c r="B82" s="10"/>
     </row>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17805"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -263,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -324,9 +324,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,9 +354,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,9 +386,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,6 +415,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -391,11 +431,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,15 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -423,38 +453,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +475,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,13 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,37 +541,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,85 +637,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,6 +666,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -680,6 +695,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,18 +725,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,17 +749,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,162 +766,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,17 +1269,17 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.9142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.4666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="8.20353982300885" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.9115044247788" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.4690265486726" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5752212389381" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="13.1" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="13.15" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>57</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17805"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -43,7 +48,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>#</t>
     </r>
@@ -196,7 +201,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -243,7 +248,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -261,14 +266,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -280,7 +279,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -294,7 +293,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -309,358 +308,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -668,251 +335,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -944,66 +369,22 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1261,34 +642,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.20353982300885" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.9115044247788" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.4690265486726" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5752212389381" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="13.1" spans="1:3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="13.15" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1317,7 +698,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1331,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1345,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1359,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1373,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1387,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1401,7 +782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1415,7 +796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1429,7 +810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1443,7 +824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1457,7 +838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1471,7 +852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1485,7 +866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1499,7 +880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1513,7 +894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1527,7 +908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1541,7 +922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1555,7 +936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1569,7 +950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1583,7 +964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1597,7 +978,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1611,7 +992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1619,13 +1000,13 @@
         <v>50</v>
       </c>
       <c r="C25" s="1">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1639,7 +1020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1653,7 +1034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1661,13 +1042,13 @@
         <v>56</v>
       </c>
       <c r="C28" s="1">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1681,7 +1062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="38.25" spans="1:4">
+    <row r="30" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1695,12 +1076,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
@@ -651,7 +651,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>25</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17805"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -48,7 +43,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -201,7 +196,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -248,7 +243,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -266,8 +261,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -279,7 +280,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -293,7 +294,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -306,28 +307,360 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -335,9 +668,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -369,22 +944,66 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -642,34 +1261,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.14285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -680,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -698,7 +1317,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -712,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -726,7 +1345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -740,7 +1359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -754,7 +1373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -768,7 +1387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -782,7 +1401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -796,7 +1415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -810,7 +1429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -818,13 +1437,13 @@
         <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -838,7 +1457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -852,7 +1471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -866,7 +1485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -880,7 +1499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -894,7 +1513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -908,7 +1527,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -922,7 +1541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -936,7 +1555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -950,7 +1569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -964,7 +1583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -978,7 +1597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -992,7 +1611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1006,7 +1625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1020,7 +1639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1034,7 +1653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1048,7 +1667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1062,7 +1681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" ht="38.25" spans="1:4">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1076,13 +1695,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2">
       <c r="B82" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="12105" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSettings</t>
   </si>
@@ -257,16 +257,28 @@
   <si>
     <t>升级经验，英文逗号分割</t>
   </si>
+  <si>
+    <t>PLAYER_MOVE_SPEED</t>
+  </si>
+  <si>
+    <t>主角移动速度</t>
+  </si>
+  <si>
+    <t>PLAYER_MOVE_SPEED_WORLD_MAP</t>
+  </si>
+  <si>
+    <t>大地图移动速度</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -310,9 +322,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,21 +336,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +364,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -360,6 +387,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -375,14 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -409,7 +443,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,7 +451,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,28 +460,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,60 +487,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -541,19 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,19 +619,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,73 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +696,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -695,6 +718,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,171 +778,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,17 +1281,17 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="8.14159292035398" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.858407079646" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.4247787610619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5752212389381" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1288,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="13.1" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="13.15" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1693,6 +1705,34 @@
       </c>
       <c r="D30" s="9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="2:2">

--- a/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/游戏设置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12105" windowHeight="6000"/>
+    <workbookView windowWidth="10740" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSettings</t>
   </si>
@@ -269,16 +269,28 @@
   <si>
     <t>大地图移动速度</t>
   </si>
+  <si>
+    <t>SAVE_COUNT</t>
+  </si>
+  <si>
+    <t>游戏支持存档的数量</t>
+  </si>
+  <si>
+    <t>CAM_SMOOTHING</t>
+  </si>
+  <si>
+    <t>镜头平滑系数</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -322,9 +334,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,21 +348,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,8 +376,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,87 +470,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,187 +499,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,17 +708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -718,15 +719,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,151 +770,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1281,17 +1293,17 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.14159292035398" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.858407079646" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.4247787610619" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5752212389381" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
+    <col min="1" max="1" width="8.14285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1300,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="13.1" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="13.15" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1733,6 +1745,34 @@
       </c>
       <c r="D32" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="2:2">
